--- a/day26_frenchflash/data/dailyfrench_results.xlsx
+++ b/day26_frenchflash/data/dailyfrench_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45395.80617958205</v>
+        <v>45395.80617958333</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -471,6 +471,48 @@
       </c>
       <c r="D2" t="n">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45433.63924440972</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45446.97478224537</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45446.97486437894</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
